--- a/h5/psd2html.xlsx
+++ b/h5/psd2html.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>购物车.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>会员中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,11 +102,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成功取消订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票信息.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待付款订单详情.psd</t>
+  </si>
+  <si>
+    <t>地址管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址管里.psd</t>
+  </si>
+  <si>
+    <t>订单追踪.psd</t>
+  </si>
+  <si>
+    <t>订单追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息.psd</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车.psd，空.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价晒单.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价晒单--订单.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单待评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部订单.psd</t>
+  </si>
+  <si>
+    <t>全部订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品收藏.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的积分-恢复的.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -472,7 +539,7 @@
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -497,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -508,7 +575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -519,7 +586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -530,7 +597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -541,18 +608,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -560,55 +627,155 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/h5/psd2html.xlsx
+++ b/h5/psd2html.xlsx
@@ -50,18 +50,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>场景采购.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二级分类页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>书写修正工具.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全部分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +170,14 @@
   </si>
   <si>
     <t>我的积分-恢复的.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景采购.psd，场景采购02.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书写修正工具改.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,13 +530,13 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -583,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -591,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -613,10 +613,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -624,10 +624,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -635,10 +635,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -646,10 +646,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -657,10 +657,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -668,10 +668,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -679,10 +679,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -690,10 +690,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -701,10 +701,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -712,10 +712,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -723,10 +723,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -734,10 +734,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -745,10 +745,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -756,10 +756,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -767,10 +767,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/h5/psd2html.xlsx
+++ b/h5/psd2html.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,134 +50,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>全部分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员中心.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交订单.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功取消订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票信息.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待付款订单详情.psd</t>
+  </si>
+  <si>
+    <t>地址管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址管里.psd</t>
+  </si>
+  <si>
+    <t>订单追踪.psd</t>
+  </si>
+  <si>
+    <t>订单追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息.psd</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车.psd，空.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价晒单.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价晒单--订单.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单待评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部订单.psd</t>
+  </si>
+  <si>
+    <t>全部订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品收藏.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的积分-恢复的.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景采购.psd，场景采购02.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书写修正工具改.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>二级分类页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全部分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员中心.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交订单.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功取消订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票信息.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待付款订单详情.psd</t>
-  </si>
-  <si>
-    <t>地址管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址管里.psd</t>
-  </si>
-  <si>
-    <t>订单追踪.psd</t>
-  </si>
-  <si>
-    <t>订单追踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息.psd</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车.psd，空.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价晒单.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价晒单--订单.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单待评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部订单.psd</t>
-  </si>
-  <si>
-    <t>全部订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品收藏.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的积分-恢复的.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景采购.psd，场景采购02.psd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书写修正工具改.psd</t>
+    <t>index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>office_stationery.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene_purchase.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd_category.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +211,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -221,8 +252,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -527,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -539,7 +572,7 @@
     <col min="3" max="3" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,169 +586,185 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -723,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -734,10 +783,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -745,10 +794,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -756,10 +805,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -767,10 +816,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/h5/psd2html.xlsx
+++ b/h5/psd2html.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,10 @@
   </si>
   <si>
     <t>2nd_category.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +567,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -647,14 +651,17 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">

--- a/h5/psd2html.xlsx
+++ b/h5/psd2html.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,10 @@
   </si>
   <si>
     <t>category.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_detail.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +571,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -665,14 +669,17 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">

--- a/h5/psd2html.xlsx
+++ b/h5/psd2html.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>product_detail.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_cart.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_cart_edit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_cart_empty.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,7 +592,7 @@
     <col min="3" max="3" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -609,7 +621,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -624,7 +636,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -639,7 +651,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -654,7 +666,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -668,7 +680,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -682,18 +694,32 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -704,7 +730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -715,7 +741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -726,7 +752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -737,7 +763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -748,7 +774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -759,7 +785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -770,7 +796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>

--- a/h5/psd2html.xlsx
+++ b/h5/psd2html.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,18 +202,6 @@
   </si>
   <si>
     <t>product_detail.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopping_cart.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopping_cart_edit.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopping_cart_empty.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -592,7 +580,7 @@
     <col min="3" max="3" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -621,7 +609,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -636,7 +624,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -651,7 +639,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -666,7 +654,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -680,7 +668,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -694,32 +682,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -730,7 +704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -741,7 +715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -752,7 +726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -763,7 +737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -774,7 +748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -785,7 +759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -796,7 +770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>

--- a/h5/psd2html.xlsx
+++ b/h5/psd2html.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>shopping_cart_empty.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit_order.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_center.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_orders.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +595,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -720,36 +732,45 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">

--- a/h5/psd2html.xlsx
+++ b/h5/psd2html.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,22 @@
   </si>
   <si>
     <t>all_orders.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoice.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel_order.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +611,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -774,47 +790,59 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">

--- a/h5/psd2html.xlsx
+++ b/h5/psd2html.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,18 @@
   </si>
   <si>
     <t>address.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_track.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +623,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -846,39 +858,48 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="D17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -889,7 +910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -900,7 +921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>

--- a/h5/psd2html.xlsx
+++ b/h5/psd2html.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,18 @@
   </si>
   <si>
     <t>review.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_review.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorite.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>points.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,7 +635,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -900,36 +912,45 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/h5/psd2html.xlsx
+++ b/h5/psd2html.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,18 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shopping_cart.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopping_cart_edit.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopping_cart_empty.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>submit_order.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,6 +254,36 @@
   </si>
   <si>
     <t>points.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手机绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有账号绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_cart.html,shopping_cart_edit.html,shopping_cart_empty.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号未注册-帐号绑定.psd,
+手机号未注册-帐号绑定绑定成功.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号已注册－帐号绑定.psd,
+手机号已注册－帐号绑定成功.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个设计页面做到一个html中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +321,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -324,10 +349,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -632,19 +667,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,8 +694,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -673,7 +713,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -688,7 +728,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -703,7 +743,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -718,7 +758,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -732,7 +772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -746,7 +786,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="40.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -756,22 +796,18 @@
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
+      <c r="D8" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -782,10 +818,10 @@
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -796,10 +832,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -810,10 +846,10 @@
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -824,10 +860,10 @@
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -838,10 +874,10 @@
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -852,10 +888,10 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -866,10 +902,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -880,10 +916,10 @@
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -894,10 +930,10 @@
         <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -908,10 +944,10 @@
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -922,10 +958,10 @@
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -936,10 +972,10 @@
         <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -950,10 +986,39 @@
         <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="27">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="27">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E24:E25"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
